--- a/test/example-valid.xlsx
+++ b/test/example-valid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\model\niem-model-format-spreadsheet\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DDB03-1BE8-47D1-B3DB-8551FC393BAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F22CE73-10F0-42D1-9409-EB87AC657195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="1620" windowWidth="19440" windowHeight="11670" tabRatio="890" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="1620" windowWidth="19440" windowHeight="11670" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -22,8 +22,6 @@
     <sheet name="Codes" sheetId="4" r:id="rId7"/>
     <sheet name="Namespace" sheetId="5" r:id="rId8"/>
     <sheet name="Local-Terminology" sheetId="11" r:id="rId9"/>
-    <sheet name="Type-Union" sheetId="10" r:id="rId10"/>
-    <sheet name="Metadata" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Codes!$A$1:$M$1</definedName>
@@ -97,17 +95,17 @@
     <definedName name="MAPPING_ARTIFACTS">'Field Descriptions'!$B$15:$B$22</definedName>
     <definedName name="MAPPING_CODES">Readme!$A$18:$A$26</definedName>
     <definedName name="MAPPING_CODES_EXTENDED">Readme!$A$18:$A$27</definedName>
-    <definedName name="Metadata_Mapping_Code">Metadata!$E$1</definedName>
-    <definedName name="Metadata_Mapping_Description">Metadata!$F$1</definedName>
-    <definedName name="Metadata_Mapping_Notes">Metadata!$G$1</definedName>
-    <definedName name="Metadata_Source_AppliesToName">Metadata!$D$1</definedName>
-    <definedName name="Metadata_Source_AppliesToPrefix">Metadata!$C$1</definedName>
-    <definedName name="Metadata_Source_TypeName">Metadata!$B$1</definedName>
-    <definedName name="Metadata_Source_TypePrefix">Metadata!$A$1</definedName>
-    <definedName name="Metadata_Target_AppliesToName">Metadata!$K$1</definedName>
-    <definedName name="Metadata_Target_AppliesToPrefix">Metadata!$J$1</definedName>
-    <definedName name="Metadata_Target_TypeName">Metadata!$I$1</definedName>
-    <definedName name="Metadata_Target_TypePrefix">Metadata!$H$1</definedName>
+    <definedName name="Metadata_Mapping_Code">#REF!</definedName>
+    <definedName name="Metadata_Mapping_Description">#REF!</definedName>
+    <definedName name="Metadata_Mapping_Notes">#REF!</definedName>
+    <definedName name="Metadata_Source_AppliesToName">#REF!</definedName>
+    <definedName name="Metadata_Source_AppliesToPrefix">#REF!</definedName>
+    <definedName name="Metadata_Source_TypeName">#REF!</definedName>
+    <definedName name="Metadata_Source_TypePrefix">#REF!</definedName>
+    <definedName name="Metadata_Target_AppliesToName">#REF!</definedName>
+    <definedName name="Metadata_Target_AppliesToPrefix">#REF!</definedName>
+    <definedName name="Metadata_Target_TypeName">#REF!</definedName>
+    <definedName name="Metadata_Target_TypePrefix">#REF!</definedName>
     <definedName name="Namespace_Mapping_Code">Namespace!$D$1</definedName>
     <definedName name="Namespace_Mapping_Description">Namespace!$E$1</definedName>
     <definedName name="Namespace_Mapping_Notes">Namespace!$F$1</definedName>
@@ -154,17 +152,17 @@
     <definedName name="Type_Target_Name">Type!$I$1</definedName>
     <definedName name="Type_Target_NamespacePrefix">Type!$H$1</definedName>
     <definedName name="Type_Target_Style">Type!$L$1</definedName>
-    <definedName name="Union_Mapping_Code">'Type-Union'!$E$1</definedName>
-    <definedName name="Union_Mapping_Description">'Type-Union'!$F$1</definedName>
-    <definedName name="Union_Mapping_Notes">'Type-Union'!$G$1</definedName>
-    <definedName name="Union_Source_MemberName">'Type-Union'!$D$1</definedName>
-    <definedName name="Union_Source_MemberPrefix">'Type-Union'!$C$1</definedName>
-    <definedName name="Union_Source_TypeName">'Type-Union'!$B$1</definedName>
-    <definedName name="Union_Source_TypePrefix">'Type-Union'!$A$1</definedName>
-    <definedName name="Union_Target_MemberName">'Type-Union'!$K$1</definedName>
-    <definedName name="Union_Target_MemberPrefix">'Type-Union'!$J$1</definedName>
-    <definedName name="Union_Target_TypeName">'Type-Union'!$I$1</definedName>
-    <definedName name="Union_Target_TypePrefix">'Type-Union'!$H$1</definedName>
+    <definedName name="Union_Mapping_Code">#REF!</definedName>
+    <definedName name="Union_Mapping_Description">#REF!</definedName>
+    <definedName name="Union_Mapping_Notes">#REF!</definedName>
+    <definedName name="Union_Source_MemberName">#REF!</definedName>
+    <definedName name="Union_Source_MemberPrefix">#REF!</definedName>
+    <definedName name="Union_Source_TypeName">#REF!</definedName>
+    <definedName name="Union_Source_TypePrefix">#REF!</definedName>
+    <definedName name="Union_Target_MemberName">#REF!</definedName>
+    <definedName name="Union_Target_MemberPrefix">#REF!</definedName>
+    <definedName name="Union_Target_TypeName">#REF!</definedName>
+    <definedName name="Union_Target_TypePrefix">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -176,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="540">
   <si>
     <t>Definition</t>
   </si>
@@ -1313,55 +1311,7 @@
     <t>Member NS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Source</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Union NS</t>
-    </r>
-  </si>
-  <si>
     <t>Member Type Name</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Target</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Union NS</t>
-    </r>
   </si>
   <si>
     <t>Literal</t>
@@ -1616,64 +1566,6 @@
       </rPr>
       <t>(default
 =unbounded)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Source</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Metadata NS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Target</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Metadata NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
     </r>
   </si>
   <si>
@@ -1995,33 +1887,6 @@
     <t xml:space="preserve">Term </t>
   </si>
   <si>
-    <t xml:space="preserve">Union Type Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member NS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member Type Name </t>
-  </si>
-  <si>
-    <t>Metadata Type Name</t>
-  </si>
-  <si>
-    <t>Applies to NS</t>
-  </si>
-  <si>
-    <t>Applies to Type Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata Type Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies to NS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies to Type Name </t>
-  </si>
-  <si>
     <t>Movie</t>
   </si>
   <si>
@@ -2662,7 +2527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2802,13 +2667,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3043,7 +2901,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3085,12 +2943,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3222,7 +3074,7 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3238,34 +3090,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3315,6 +3146,21 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -3390,176 +3236,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <strike val="0"/>
@@ -4145,23 +3822,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A4:D12" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A4:D12" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Document" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Source fields_x000a_(blue column headers)" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Target fields_x000a_(red column headers)" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Document" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Source fields_x000a_(blue column headers)" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Target fields_x000a_(red column headers)" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A30:B39" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45" headerRowCellStyle="Neutral">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A30:B39" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Neutral">
   <autoFilter ref="A30:B39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tips and tricks" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tips and tricks" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4170,8 +3847,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A2:B9" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SOURCE INFORMATION" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name=" " dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SOURCE INFORMATION" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name=" " dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4180,8 +3857,8 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A12:B17" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MAPPING INFORMATION" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="MAPPING INFORMATION" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name=" " dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4190,59 +3867,33 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A20:B26" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TARGET INFORMATION" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TARGET INFORMATION" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name=" " dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3" displayName="Table3" ref="A1:P54" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowCellStyle="Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table3" displayName="Table3" ref="A1:P54" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Accent2">
   <autoFilter ref="A1:P54" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Source_x000a_NS Prefix" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Property Name" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Data Type" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Definition" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Mapping_x000a_Code" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Description" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Notes" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Target_x000a_NS Prefix" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Property Name " dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qualified Data Type" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Definition " dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Qualified Substitution Group" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Style_x000a_default=element" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Keywords" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Example Content" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="Usage Info" dataDxfId="19"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Source_x000a_Type NS" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Type Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Property NS" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Property Name" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Min" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Max" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Mapping_x000a_Code" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Notes" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Target_x000a_Type NS" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Type Name " dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Property NS " dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="Property Name " dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="Min_x000a_(default=0)" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Max (default_x000a_=unbounded)" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="Definition_x000a_For an external property in an adapter type" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{78D268D1-27FA-4E25-9781-8F942EC05BA0}" name="Sequence" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Source_x000a_NS Prefix" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Property Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Data Type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Definition" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Mapping_x000a_Code" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Notes" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Target_x000a_NS Prefix" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Property Name " dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Qualified Data Type" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Definition " dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Qualified Substitution Group" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Style_x000a_default=element" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Keywords" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Example Content" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="Usage Info" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4575,48 +4226,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="17" customWidth="1"/>
     <col min="3" max="4" width="35" style="13" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -4624,13 +4275,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -4638,13 +4289,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -4652,13 +4303,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -4666,13 +4317,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -4680,13 +4331,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4694,13 +4345,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -4708,13 +4359,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -4722,27 +4373,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="38" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -4753,10 +4404,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -4767,10 +4418,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -4781,10 +4432,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -4795,108 +4446,108 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>300</v>
+      <c r="C26" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="35" t="s">
         <v>228</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4957,19 +4608,19 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>277</v>
+      <c r="A38" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>281</v>
+      <c r="A39" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4979,172 +4630,6 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>355</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0900-000001000000}">
-      <formula1>MAPPING_CODES</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="I1" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="J1" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="K1" s="80" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0A00-000001000000}">
-      <formula1>MAPPING_CODES</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5158,467 +4643,467 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="76" style="19" customWidth="1"/>
-    <col min="4" max="5" width="29.28515625" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="18"/>
+    <col min="1" max="1" width="3.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="76" style="17" customWidth="1"/>
+    <col min="4" max="5" width="29.28515625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="35"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="C15" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71" t="s">
+      <c r="C18" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="68"/>
+      <c r="B21" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71" t="s">
+      <c r="C23" s="35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="68"/>
+      <c r="B25" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
+      <c r="B29" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71" t="s">
+      <c r="C30" s="35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="68"/>
+      <c r="B31" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71" t="s">
+      <c r="C31" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="C32" s="35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="37"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72" t="s">
-        <v>296</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="37"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="36" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C44" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="36" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C45" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="36" t="s">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C47" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="48" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>279</v>
+      <c r="C48" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="36" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="47"/>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="55" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="47" t="s">
-        <v>254</v>
+      <c r="C50" s="45" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="C51" s="36" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="55" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="47" t="s">
-        <v>253</v>
+      <c r="C52" s="45" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="36" t="s">
+      <c r="A53" s="44"/>
+      <c r="B53" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="36" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="34" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="36" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="57" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5627,7 +5112,7 @@
       <c r="B58" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="57" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5636,7 +5121,7 @@
       <c r="B59" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="57" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5645,7 +5130,7 @@
       <c r="B60" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="59" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5654,7 +5139,7 @@
       <c r="B61" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="59" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5663,7 +5148,7 @@
       <c r="B62" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="59" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5672,235 +5157,235 @@
       <c r="B63" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="52"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="36" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="36" t="s">
+      <c r="A70" s="41"/>
+      <c r="B70" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="36" t="s">
+      <c r="A71" s="41"/>
+      <c r="B71" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="36" t="s">
+      <c r="A72" s="41"/>
+      <c r="B72" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="37" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="36" t="s">
+      <c r="A76" s="42"/>
+      <c r="B76" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="36" t="s">
+      <c r="A77" s="42"/>
+      <c r="B77" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="36" t="s">
+      <c r="A78" s="42"/>
+      <c r="B78" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="36" t="s">
+      <c r="A79" s="42"/>
+      <c r="B79" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="34" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="36" t="s">
+      <c r="A80" s="42"/>
+      <c r="B80" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C80" s="36"/>
+      <c r="C80" s="34"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="55" t="s">
+      <c r="A81" s="42"/>
+      <c r="B81" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+      <c r="B83" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="B84" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+      <c r="B85" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="C81" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="55" t="s">
+      <c r="C85" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+      <c r="B86" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+      <c r="B87" s="53" t="s">
         <v>329</v>
       </c>
-      <c r="C82" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="55" t="s">
+      <c r="C87" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+      <c r="B88" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="C83" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="55" t="s">
+      <c r="C88" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="42"/>
+      <c r="B89" s="53" t="s">
         <v>331</v>
       </c>
-      <c r="C84" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="55" t="s">
-        <v>334</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="58" t="s">
+      <c r="A90" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="61" t="s">
+      <c r="C91" s="59" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5909,972 +5394,972 @@
       <c r="B92" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="61" t="s">
+      <c r="C92" s="59" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
+      <c r="A94" s="46"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B96" s="51"/>
-      <c r="C96" s="52"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="50"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="36" t="s">
+      <c r="A98" s="41"/>
+      <c r="B98" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="36" t="s">
+      <c r="A99" s="41"/>
+      <c r="B99" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="36" t="s">
+      <c r="A100" s="41"/>
+      <c r="B100" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="36" t="s">
+      <c r="A101" s="41"/>
+      <c r="B101" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="36" t="s">
+      <c r="A102" s="41"/>
+      <c r="B102" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="36" t="s">
+      <c r="A103" s="41"/>
+      <c r="B103" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="56" t="s">
+      <c r="A104" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="37" t="s">
+      <c r="A105" s="42"/>
+      <c r="B105" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="36" t="s">
+      <c r="A107" s="41"/>
+      <c r="B107" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="36" t="s">
+      <c r="A108" s="41"/>
+      <c r="B108" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="36" t="s">
+      <c r="A109" s="41"/>
+      <c r="B109" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="36" t="s">
+      <c r="A110" s="41"/>
+      <c r="B110" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="34" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="36" t="s">
+      <c r="A111" s="41"/>
+      <c r="B111" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="34" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="55" t="s">
+      <c r="A112" s="41"/>
+      <c r="B112" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="36" t="s">
+      <c r="A113" s="41"/>
+      <c r="B113" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="55" t="s">
+      <c r="A114" s="41"/>
+      <c r="B114" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="36" t="s">
+      <c r="A115" s="41"/>
+      <c r="B115" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="C116" s="36" t="s">
-        <v>338</v>
+      <c r="A116" s="41"/>
+      <c r="B116" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="58" t="s">
+      <c r="A117" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="58"/>
-      <c r="C117" s="58"/>
+      <c r="B117" s="56"/>
+      <c r="C117" s="56"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C118" s="59" t="s">
+      <c r="C118" s="57" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
+      <c r="A119" s="51"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="52"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="B122" s="51"/>
-      <c r="C122" s="57"/>
+      <c r="A122" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="B122" s="49"/>
+      <c r="C122" s="55"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="43"/>
-      <c r="B124" s="36" t="s">
+      <c r="A124" s="41"/>
+      <c r="B124" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="36" t="s">
+      <c r="A125" s="41"/>
+      <c r="B125" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
-      <c r="B126" s="36" t="s">
+      <c r="A126" s="41"/>
+      <c r="B126" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="43"/>
-      <c r="B127" s="36" t="s">
+      <c r="A127" s="41"/>
+      <c r="B127" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="56" t="s">
+      <c r="A128" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="56"/>
-      <c r="C128" s="56"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
-      <c r="B129" s="37" t="s">
+      <c r="A129" s="42"/>
+      <c r="B129" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="36" t="s">
+      <c r="C129" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="45" t="s">
+      <c r="A130" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="36" t="s">
+      <c r="A131" s="41"/>
+      <c r="B131" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C131" s="36" t="s">
+      <c r="C131" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="36" t="s">
+      <c r="A132" s="41"/>
+      <c r="B132" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="36" t="s">
+      <c r="A133" s="42"/>
+      <c r="B133" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C133" s="36" t="s">
+      <c r="C133" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
-      <c r="B134" s="36" t="s">
+      <c r="A134" s="42"/>
+      <c r="B134" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="36" t="s">
+      <c r="A135" s="42"/>
+      <c r="B135" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="55" t="s">
+      <c r="A136" s="42"/>
+      <c r="B136" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C136" s="36" t="s">
+      <c r="C136" s="34" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="55" t="s">
+      <c r="A137" s="42"/>
+      <c r="B137" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="34" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="55" t="s">
+      <c r="A138" s="42"/>
+      <c r="B138" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C138" s="34" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
-      <c r="B139" s="55" t="s">
+      <c r="A139" s="42"/>
+      <c r="B139" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C139" s="34" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="55" t="s">
+      <c r="A140" s="42"/>
+      <c r="B140" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C140" s="36" t="s">
+      <c r="C140" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
-      <c r="B141" s="55" t="s">
+      <c r="A141" s="42"/>
+      <c r="B141" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="34" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
-      <c r="B142" s="55" t="s">
+      <c r="A142" s="42"/>
+      <c r="B142" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="34" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
-      <c r="B143" s="55" t="s">
+      <c r="A143" s="42"/>
+      <c r="B143" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="34" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
-      <c r="B144" s="55" t="s">
+      <c r="A144" s="42"/>
+      <c r="B144" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C144" s="36" t="s">
+      <c r="C144" s="34" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
-      <c r="B145" s="55" t="s">
+      <c r="A145" s="42"/>
+      <c r="B145" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="C145" s="36" t="s">
+      <c r="C145" s="34" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
-      <c r="B146" s="55" t="s">
+      <c r="A146" s="42"/>
+      <c r="B146" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C146" s="36" t="s">
+      <c r="C146" s="34" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
-      <c r="B147" s="55" t="s">
+      <c r="A147" s="42"/>
+      <c r="B147" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="C147" s="36" t="s">
+      <c r="C147" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="58" t="s">
+      <c r="A148" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B148" s="58"/>
-      <c r="C148" s="58"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="56"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C149" s="59" t="s">
+      <c r="C149" s="57" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
-      <c r="B150" s="49"/>
-      <c r="C150" s="49"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
-      <c r="B151" s="49"/>
-      <c r="C151" s="49"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="47"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
-      <c r="B152" s="49"/>
-      <c r="C152" s="49"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="50" t="s">
+      <c r="A153" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="51"/>
-      <c r="C153" s="52"/>
+      <c r="B153" s="49"/>
+      <c r="C153" s="50"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="42" t="s">
+      <c r="A154" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B154" s="42"/>
-      <c r="C154" s="42"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="43"/>
-      <c r="B155" s="36" t="s">
+      <c r="A155" s="41"/>
+      <c r="B155" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C155" s="36" t="s">
+      <c r="C155" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="43"/>
-      <c r="B156" s="36" t="s">
+      <c r="A156" s="41"/>
+      <c r="B156" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C156" s="36" t="s">
+      <c r="C156" s="34" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="43"/>
-      <c r="B157" s="36" t="s">
+      <c r="A157" s="41"/>
+      <c r="B157" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="36" t="s">
+      <c r="C157" s="34" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="56" t="s">
+      <c r="A158" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B158" s="56"/>
-      <c r="C158" s="56"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="54"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
-      <c r="B159" s="37" t="s">
+      <c r="A159" s="42"/>
+      <c r="B159" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C159" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="45" t="s">
+      <c r="A160" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B160" s="45"/>
-      <c r="C160" s="45"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
-      <c r="B161" s="36" t="s">
+      <c r="A161" s="42"/>
+      <c r="B161" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C161" s="36" t="s">
+      <c r="C161" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
-      <c r="B162" s="36" t="s">
+      <c r="A162" s="42"/>
+      <c r="B162" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C162" s="36"/>
+      <c r="C162" s="34"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
-      <c r="B163" s="55" t="s">
+      <c r="A163" s="42"/>
+      <c r="B163" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C163" s="36" t="s">
+      <c r="C163" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="42"/>
+      <c r="B164" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="42"/>
+      <c r="B165" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="42"/>
+      <c r="B166" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="42"/>
+      <c r="B167" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C167" s="34" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
-      <c r="B164" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="C164" s="36" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="42"/>
+      <c r="B168" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="42"/>
+      <c r="B169" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" s="34" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
-      <c r="B165" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
-      <c r="B166" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="C166" s="36" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="42"/>
+      <c r="B170" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="42"/>
+      <c r="B171" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C171" s="34" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
-      <c r="B167" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
-      <c r="B168" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="C168" s="36" t="s">
+    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="42"/>
+      <c r="B172" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="C172" s="34" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
-      <c r="B169" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="C170" s="36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="44"/>
-      <c r="B171" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="C171" s="36" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="42"/>
+      <c r="B173" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="42"/>
+      <c r="B174" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="42"/>
+      <c r="B175" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="42"/>
+      <c r="B176" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="42"/>
+      <c r="B177" s="53" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
-      <c r="B172" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="C172" s="36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
-      <c r="B173" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C173" s="36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
-      <c r="B174" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C175" s="36" t="s">
+      <c r="C177" s="34" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
-      <c r="B176" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="C176" s="36" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="42"/>
+      <c r="B178" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C178" s="34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
-      <c r="B177" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="C177" s="36" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="42"/>
+      <c r="B179" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C179" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
-      <c r="B178" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="C178" s="36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
-      <c r="B179" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
-      <c r="B180" s="36" t="s">
+      <c r="A180" s="42"/>
+      <c r="B180" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C180" s="36" t="s">
+      <c r="C180" s="34" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="58" t="s">
+      <c r="A181" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="56"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C182" s="60" t="s">
+      <c r="C182" s="58" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="50" t="s">
+      <c r="A186" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B186" s="49"/>
+      <c r="C186" s="50"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B187" s="40"/>
+      <c r="C187" s="40"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="41"/>
+      <c r="B188" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C188" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="41"/>
+      <c r="B189" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C189" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B190" s="54"/>
+      <c r="C190" s="54"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="42"/>
+      <c r="B191" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B192" s="43"/>
+      <c r="C192" s="43"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="42"/>
+      <c r="B193" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C193" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="B186" s="51"/>
-      <c r="C186" s="52"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B187" s="42"/>
-      <c r="C187" s="42"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="43"/>
-      <c r="B188" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C188" s="36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="43"/>
-      <c r="B189" s="36" t="s">
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="42"/>
+      <c r="B194" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="42"/>
+      <c r="B195" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C195" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C189" s="36" t="s">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="42"/>
+      <c r="B196" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B190" s="56"/>
-      <c r="C190" s="56"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="44"/>
-      <c r="B191" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B192" s="45"/>
-      <c r="C192" s="45"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
-      <c r="B193" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C193" s="36" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
-      <c r="B194" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C194" s="36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="44"/>
-      <c r="B195" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C195" s="36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="44"/>
-      <c r="B196" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C196" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="58" t="s">
+      <c r="A197" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B197" s="58"/>
-      <c r="C197" s="58"/>
+      <c r="B197" s="56"/>
+      <c r="C197" s="56"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="60" t="s">
+      <c r="C198" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="B202" s="49"/>
+      <c r="C202" s="50"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B203" s="40"/>
+      <c r="C203" s="40"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="41"/>
+      <c r="B204" s="34" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="50" t="s">
-        <v>350</v>
-      </c>
-      <c r="B202" s="51"/>
-      <c r="C202" s="52"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B203" s="42"/>
-      <c r="C203" s="42"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="43"/>
-      <c r="B204" s="36" t="s">
+      <c r="C204" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="41"/>
+      <c r="B205" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C205" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="C204" s="36" t="s">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="41"/>
+      <c r="B206" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C206" s="34" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="43"/>
-      <c r="B205" s="36" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="41"/>
+      <c r="B207" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C207" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B208" s="54"/>
+      <c r="C208" s="54"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="42"/>
+      <c r="B209" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B210" s="43"/>
+      <c r="C210" s="43"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="42"/>
+      <c r="B211" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C211" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="42"/>
+      <c r="B212" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C205" s="36" t="s">
+      <c r="C212" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="42"/>
+      <c r="B213" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C213" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="42"/>
+      <c r="B214" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C214" s="34" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="43"/>
-      <c r="B206" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C206" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="43"/>
-      <c r="B207" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C207" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="B208" s="56"/>
-      <c r="C208" s="56"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="44"/>
-      <c r="B209" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B210" s="45"/>
-      <c r="C210" s="45"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="44"/>
-      <c r="B211" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C211" s="36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="44"/>
-      <c r="B212" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C212" s="36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="44"/>
-      <c r="B213" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C213" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="44"/>
-      <c r="B214" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C214" s="36" t="s">
-        <v>245</v>
-      </c>
-    </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="58" t="s">
+      <c r="A215" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B215" s="58"/>
-      <c r="C215" s="58"/>
+      <c r="B215" s="56"/>
+      <c r="C215" s="56"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C216" s="60" t="s">
-        <v>240</v>
+      <c r="C216" s="58" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6918,167 +6403,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>246</v>
+      <c r="A4" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>247</v>
+      <c r="A5" s="21" t="s">
+        <v>245</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>288</v>
+      <c r="A14" s="66" t="s">
+        <v>284</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B29" s="6"/>
@@ -7108,7 +6593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7119,22 +6604,22 @@
   <cols>
     <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="84" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="75" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="22.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="84" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="75" customWidth="1"/>
     <col min="11" max="11" width="45.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="84" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="84" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="75" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="75" customWidth="1"/>
     <col min="14" max="14" width="31.28515625" style="2" customWidth="1"/>
     <col min="15" max="17" width="31.85546875" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -7160,19 +6645,19 @@
         <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>29</v>
@@ -7184,1723 +6669,1723 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83" t="s">
+    <row r="2" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74"/>
+      <c r="B2" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>353</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+    </row>
+    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83" t="s">
+      <c r="E5" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="K5" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+    </row>
+    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="K7" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="L9" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="73" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-    </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82" t="s">
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I3" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="J3" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="K3" s="82" t="s">
-        <v>367</v>
-      </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-    </row>
-    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="82" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="L13" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+    </row>
+    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-    </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>377</v>
-      </c>
-      <c r="E5" s="82" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>404</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="J5" s="82" t="s">
-        <v>379</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>380</v>
-      </c>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-    </row>
-    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>382</v>
-      </c>
-      <c r="E6" s="82" t="s">
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+    </row>
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>413</v>
+      </c>
+      <c r="E16" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>383</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-    </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="82" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="K7" s="82" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+    </row>
+    <row r="18" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74" t="s">
+        <v>422</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="J19" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>432</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+    </row>
+    <row r="21" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>437</v>
+      </c>
+      <c r="J21" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>439</v>
+      </c>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>443</v>
+      </c>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+    </row>
+    <row r="23" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>444</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>445</v>
+      </c>
+      <c r="K24" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="L24" s="73" t="s">
+        <v>447</v>
+      </c>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+    </row>
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I25" s="73" t="s">
+        <v>450</v>
+      </c>
+      <c r="J25" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>452</v>
+      </c>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+    </row>
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>453</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="K26" s="73" t="s">
+        <v>454</v>
+      </c>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+    </row>
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>455</v>
+      </c>
+      <c r="J27" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="K27" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="L27" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>459</v>
+      </c>
+      <c r="J28" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K28" s="73" t="s">
+        <v>460</v>
+      </c>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+    </row>
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I29" s="73" t="s">
+        <v>463</v>
+      </c>
+      <c r="J29" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K29" s="73" t="s">
+        <v>464</v>
+      </c>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="73" t="s">
+        <v>465</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>467</v>
+      </c>
+      <c r="J30" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="K30" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="73" t="s">
+        <v>469</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I31" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="J31" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="K31" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+    </row>
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="73" t="s">
+        <v>475</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I32" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="J32" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="K32" s="73" t="s">
+        <v>478</v>
+      </c>
+      <c r="L32" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+    </row>
+    <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73" t="s">
+        <v>479</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I33" s="73" t="s">
+        <v>481</v>
+      </c>
+      <c r="J33" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="K33" s="73" t="s">
+        <v>483</v>
+      </c>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+    </row>
+    <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73" t="s">
+        <v>479</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I34" s="73" t="s">
+        <v>484</v>
+      </c>
+      <c r="J34" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="K34" s="73" t="s">
+        <v>486</v>
+      </c>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+    </row>
+    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>488</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>489</v>
+      </c>
+      <c r="J35" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="K35" s="73" t="s">
+        <v>490</v>
+      </c>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+    </row>
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>493</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" s="73" t="s">
+        <v>494</v>
+      </c>
+      <c r="J36" s="73" t="s">
+        <v>495</v>
+      </c>
+      <c r="K36" s="73" t="s">
+        <v>496</v>
+      </c>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+    </row>
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="D37" s="73" t="s">
+        <v>493</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I37" s="73" t="s">
+        <v>497</v>
+      </c>
+      <c r="J37" s="73" t="s">
+        <v>498</v>
+      </c>
+      <c r="K37" s="73" t="s">
+        <v>499</v>
+      </c>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+    </row>
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="D38" s="73" t="s">
+        <v>493</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I38" s="73" t="s">
+        <v>500</v>
+      </c>
+      <c r="J38" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+    </row>
+    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>493</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I39" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="J39" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="K39" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="L39" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+    </row>
+    <row r="40" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+    </row>
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="73"/>
+      <c r="B41" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J41" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="K41" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+    </row>
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I42" s="73" t="s">
+        <v>508</v>
+      </c>
+      <c r="J42" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="K42" s="73" t="s">
+        <v>509</v>
+      </c>
+      <c r="L42" s="73" t="s">
+        <v>510</v>
+      </c>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I43" s="73" t="s">
+        <v>459</v>
+      </c>
+      <c r="J43" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K43" s="73" t="s">
+        <v>460</v>
+      </c>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+    </row>
+    <row r="44" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="74"/>
+      <c r="B44" s="74" t="s">
         <v>390</v>
       </c>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" s="82" t="s">
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+    </row>
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>395</v>
-      </c>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="82" t="s">
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I45" s="73" t="s">
+        <v>511</v>
+      </c>
+      <c r="J45" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="K45" s="73" t="s">
+        <v>513</v>
+      </c>
+      <c r="L45" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+    </row>
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="73"/>
+      <c r="B46" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E46" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I46" s="73" t="s">
+        <v>515</v>
+      </c>
+      <c r="J46" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="K46" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+    </row>
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="73"/>
+      <c r="B47" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D47" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I47" s="73" t="s">
+        <v>453</v>
+      </c>
+      <c r="J47" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="K47" s="73" t="s">
+        <v>454</v>
+      </c>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+    </row>
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="73"/>
+      <c r="B48" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I48" s="73" t="s">
+        <v>455</v>
+      </c>
+      <c r="J48" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="K48" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="L48" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="73"/>
+      <c r="B49" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I49" s="73" t="s">
+        <v>459</v>
+      </c>
+      <c r="J49" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" s="73" t="s">
+        <v>460</v>
+      </c>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+    </row>
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="73"/>
+      <c r="B50" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>462</v>
+      </c>
+      <c r="E50" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I9" s="82" t="s">
-        <v>396</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>397</v>
-      </c>
-      <c r="L9" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82" t="s">
-        <v>391</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="82" t="s">
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I50" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="J50" s="73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" s="73" t="s">
+        <v>518</v>
+      </c>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+    </row>
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="73"/>
+      <c r="B51" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>520</v>
+      </c>
+      <c r="E51" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>400</v>
-      </c>
-      <c r="J10" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="K10" s="82" t="s">
-        <v>397</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-    </row>
-    <row r="11" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>403</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>404</v>
-      </c>
-      <c r="E11" s="82" t="s">
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I51" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="J51" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="K51" s="73" t="s">
+        <v>522</v>
+      </c>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+    </row>
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="73"/>
+      <c r="B52" s="73" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73" t="s">
+        <v>431</v>
+      </c>
+      <c r="I52" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="J52" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="K52" s="73" t="s">
+        <v>527</v>
+      </c>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+    </row>
+    <row r="53" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="74"/>
+      <c r="B53" s="74" t="s">
+        <v>528</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+    </row>
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="73"/>
+      <c r="B54" s="73" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>531</v>
+      </c>
+      <c r="E54" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>406</v>
-      </c>
-      <c r="K11" s="82" t="s">
-        <v>407</v>
-      </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-    </row>
-    <row r="12" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I13" s="82" t="s">
-        <v>409</v>
-      </c>
-      <c r="J13" s="82" t="s">
-        <v>410</v>
-      </c>
-      <c r="K13" s="82" t="s">
-        <v>411</v>
-      </c>
-      <c r="L13" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-    </row>
-    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>415</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I14" s="82" t="s">
-        <v>416</v>
-      </c>
-      <c r="J14" s="82" t="s">
-        <v>417</v>
-      </c>
-      <c r="K14" s="82" t="s">
-        <v>418</v>
-      </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I15" s="82" t="s">
-        <v>422</v>
-      </c>
-      <c r="J15" s="82" t="s">
-        <v>423</v>
-      </c>
-      <c r="K15" s="82" t="s">
-        <v>424</v>
-      </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-    </row>
-    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82" t="s">
-        <v>425</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>426</v>
-      </c>
-      <c r="E16" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I16" s="82" t="s">
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="I54" s="73" t="s">
+        <v>532</v>
+      </c>
+      <c r="J54" s="73" t="s">
         <v>427</v>
       </c>
-      <c r="J16" s="82" t="s">
-        <v>423</v>
-      </c>
-      <c r="K16" s="82" t="s">
-        <v>428</v>
-      </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-    </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>430</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>431</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I17" s="82" t="s">
-        <v>432</v>
-      </c>
-      <c r="J17" s="82" t="s">
-        <v>433</v>
-      </c>
-      <c r="K17" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-    </row>
-    <row r="18" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82" t="s">
-        <v>436</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D19" s="82" t="s">
-        <v>438</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I19" s="82" t="s">
-        <v>439</v>
-      </c>
-      <c r="J19" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K19" s="82" t="s">
-        <v>441</v>
-      </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82" t="s">
-        <v>442</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>443</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I20" s="82" t="s">
-        <v>445</v>
-      </c>
-      <c r="J20" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K20" s="82" t="s">
-        <v>446</v>
-      </c>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-    </row>
-    <row r="21" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82" t="s">
-        <v>447</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>448</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>449</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I21" s="82" t="s">
-        <v>450</v>
-      </c>
-      <c r="J21" s="82" t="s">
-        <v>451</v>
-      </c>
-      <c r="K21" s="82" t="s">
-        <v>452</v>
-      </c>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82" t="s">
-        <v>453</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>454</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I22" s="82" t="s">
-        <v>455</v>
-      </c>
-      <c r="J22" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K22" s="82" t="s">
-        <v>456</v>
-      </c>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-    </row>
-    <row r="23" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I24" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="J24" s="82" t="s">
-        <v>458</v>
-      </c>
-      <c r="K24" s="82" t="s">
-        <v>459</v>
-      </c>
-      <c r="L24" s="82" t="s">
-        <v>460</v>
-      </c>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-    </row>
-    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E25" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I25" s="82" t="s">
-        <v>463</v>
-      </c>
-      <c r="J25" s="82" t="s">
-        <v>464</v>
-      </c>
-      <c r="K25" s="82" t="s">
-        <v>465</v>
-      </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-    </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C26" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E26" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I26" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J26" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="K26" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-    </row>
-    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E27" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I27" s="82" t="s">
-        <v>468</v>
-      </c>
-      <c r="J27" s="82" t="s">
-        <v>469</v>
-      </c>
-      <c r="K27" s="82" t="s">
-        <v>470</v>
-      </c>
-      <c r="L27" s="82" t="s">
-        <v>471</v>
-      </c>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I28" s="82" t="s">
-        <v>472</v>
-      </c>
-      <c r="J28" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K28" s="82" t="s">
-        <v>473</v>
-      </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-    </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82" t="s">
-        <v>474</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>475</v>
-      </c>
-      <c r="E29" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="J29" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K29" s="82" t="s">
-        <v>477</v>
-      </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82" t="s">
-        <v>478</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>479</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I30" s="82" t="s">
-        <v>480</v>
-      </c>
-      <c r="J30" s="82" t="s">
-        <v>423</v>
-      </c>
-      <c r="K30" s="82" t="s">
-        <v>481</v>
-      </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82" t="s">
-        <v>482</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>483</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>484</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I31" s="82" t="s">
-        <v>485</v>
-      </c>
-      <c r="J31" s="82" t="s">
-        <v>486</v>
-      </c>
-      <c r="K31" s="82" t="s">
-        <v>487</v>
-      </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-    </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82" t="s">
-        <v>488</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>489</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I32" s="82" t="s">
-        <v>490</v>
-      </c>
-      <c r="J32" s="82" t="s">
-        <v>451</v>
-      </c>
-      <c r="K32" s="82" t="s">
-        <v>491</v>
-      </c>
-      <c r="L32" s="82" t="s">
-        <v>471</v>
-      </c>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-    </row>
-    <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82" t="s">
-        <v>492</v>
-      </c>
-      <c r="C33" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D33" s="82" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I33" s="82" t="s">
-        <v>494</v>
-      </c>
-      <c r="J33" s="82" t="s">
-        <v>495</v>
-      </c>
-      <c r="K33" s="82" t="s">
-        <v>496</v>
-      </c>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-    </row>
-    <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>493</v>
-      </c>
-      <c r="E34" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I34" s="82" t="s">
-        <v>497</v>
-      </c>
-      <c r="J34" s="82" t="s">
-        <v>498</v>
-      </c>
-      <c r="K34" s="82" t="s">
-        <v>499</v>
-      </c>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-    </row>
-    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82" t="s">
-        <v>500</v>
-      </c>
-      <c r="C35" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>501</v>
-      </c>
-      <c r="E35" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I35" s="82" t="s">
-        <v>502</v>
-      </c>
-      <c r="J35" s="82" t="s">
-        <v>498</v>
-      </c>
-      <c r="K35" s="82" t="s">
-        <v>503</v>
-      </c>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-    </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>506</v>
-      </c>
-      <c r="E36" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I36" s="82" t="s">
-        <v>507</v>
-      </c>
-      <c r="J36" s="82" t="s">
-        <v>508</v>
-      </c>
-      <c r="K36" s="82" t="s">
-        <v>509</v>
-      </c>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>506</v>
-      </c>
-      <c r="E37" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I37" s="82" t="s">
-        <v>510</v>
-      </c>
-      <c r="J37" s="82" t="s">
-        <v>511</v>
-      </c>
-      <c r="K37" s="82" t="s">
-        <v>512</v>
-      </c>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-    </row>
-    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>506</v>
-      </c>
-      <c r="E38" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I38" s="82" t="s">
-        <v>513</v>
-      </c>
-      <c r="J38" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="K38" s="82" t="s">
-        <v>514</v>
-      </c>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-    </row>
-    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>505</v>
-      </c>
-      <c r="D39" s="82" t="s">
-        <v>506</v>
-      </c>
-      <c r="E39" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I39" s="82" t="s">
-        <v>515</v>
-      </c>
-      <c r="J39" s="82" t="s">
-        <v>516</v>
-      </c>
-      <c r="K39" s="82" t="s">
-        <v>517</v>
-      </c>
-      <c r="L39" s="82" t="s">
-        <v>518</v>
-      </c>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-    </row>
-    <row r="40" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83" t="s">
-        <v>483</v>
-      </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-    </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C41" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I41" s="82" t="s">
-        <v>519</v>
-      </c>
-      <c r="J41" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="K41" s="82" t="s">
-        <v>520</v>
-      </c>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-    </row>
-    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C42" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I42" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="J42" s="82" t="s">
-        <v>469</v>
-      </c>
-      <c r="K42" s="82" t="s">
-        <v>522</v>
-      </c>
-      <c r="L42" s="82" t="s">
-        <v>523</v>
-      </c>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C43" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I43" s="82" t="s">
-        <v>472</v>
-      </c>
-      <c r="J43" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K43" s="82" t="s">
-        <v>473</v>
-      </c>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-    </row>
-    <row r="44" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83" t="s">
-        <v>403</v>
-      </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-    </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I45" s="82" t="s">
-        <v>524</v>
-      </c>
-      <c r="J45" s="82" t="s">
-        <v>525</v>
-      </c>
-      <c r="K45" s="82" t="s">
-        <v>526</v>
-      </c>
-      <c r="L45" s="82" t="s">
-        <v>527</v>
-      </c>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-    </row>
-    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E46" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I46" s="82" t="s">
-        <v>528</v>
-      </c>
-      <c r="J46" s="82" t="s">
-        <v>464</v>
-      </c>
-      <c r="K46" s="82" t="s">
-        <v>529</v>
-      </c>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-    </row>
-    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C47" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E47" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I47" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="J47" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="K47" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-    </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C48" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D48" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I48" s="82" t="s">
-        <v>468</v>
-      </c>
-      <c r="J48" s="82" t="s">
-        <v>469</v>
-      </c>
-      <c r="K48" s="82" t="s">
-        <v>470</v>
-      </c>
-      <c r="L48" s="82" t="s">
-        <v>471</v>
-      </c>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C49" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>462</v>
-      </c>
-      <c r="E49" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I49" s="82" t="s">
-        <v>472</v>
-      </c>
-      <c r="J49" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K49" s="82" t="s">
-        <v>473</v>
-      </c>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-    </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82" t="s">
-        <v>474</v>
-      </c>
-      <c r="C50" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>475</v>
-      </c>
-      <c r="E50" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I50" s="82" t="s">
-        <v>530</v>
-      </c>
-      <c r="J50" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K50" s="82" t="s">
-        <v>531</v>
-      </c>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-    </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82" t="s">
-        <v>532</v>
-      </c>
-      <c r="C51" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D51" s="82" t="s">
+      <c r="K54" s="73" t="s">
         <v>533</v>
       </c>
-      <c r="E51" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I51" s="82" t="s">
-        <v>534</v>
-      </c>
-      <c r="J51" s="82" t="s">
-        <v>451</v>
-      </c>
-      <c r="K51" s="82" t="s">
-        <v>535</v>
-      </c>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-    </row>
-    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82" t="s">
-        <v>536</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>537</v>
-      </c>
-      <c r="E52" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="I52" s="82" t="s">
-        <v>538</v>
-      </c>
-      <c r="J52" s="82" t="s">
-        <v>539</v>
-      </c>
-      <c r="K52" s="82" t="s">
-        <v>540</v>
-      </c>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-    </row>
-    <row r="53" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83" t="s">
-        <v>541</v>
-      </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-    </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82" t="s">
-        <v>542</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>543</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>544</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82" t="s">
-        <v>365</v>
-      </c>
-      <c r="I54" s="82" t="s">
-        <v>545</v>
-      </c>
-      <c r="J54" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="K54" s="82" t="s">
-        <v>546</v>
-      </c>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="3">
@@ -8951,7 +8436,7 @@
     <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="62" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -8964,7 +8449,7 @@
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -8977,25 +8462,25 @@
         <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -9020,7 +8505,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9033,7 +8518,7 @@
     <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" style="19" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" hidden="1" customWidth="1"/>
@@ -9041,73 +8526,65 @@
     <col min="11" max="11" width="23.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
     <col min="13" max="13" width="30.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="17" customWidth="1"/>
     <col min="16" max="16" width="43.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="62" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="K1" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="94" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="77" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="N1" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="P1" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" s="95" t="s">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -9118,9 +8595,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9133,68 +8607,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="19" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="19" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="19"/>
+    <col min="1" max="1" width="11.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" style="17" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:13" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="89" t="s">
-        <v>345</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="90" t="s">
+      <c r="E1" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="L1" s="93" t="s">
-        <v>339</v>
-      </c>
-      <c r="M1" s="94" t="s">
-        <v>347</v>
+      <c r="L1" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -9231,63 +8705,63 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="62" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="6" width="29.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="64" customWidth="1"/>
-    <col min="8" max="8" width="13" style="64" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" style="64" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="13" style="62" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" style="62" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" style="62" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="35.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" style="65" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" style="63" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="2" customWidth="1"/>
     <col min="16" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="62" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:14" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="97" t="s">
-        <v>552</v>
-      </c>
-      <c r="E1" s="85" t="s">
+      <c r="D1" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="98" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1" s="98" t="s">
-        <v>339</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="N1" s="99" t="s">
+      <c r="I1" s="89" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="90" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9328,8 +8802,8 @@
     <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="19" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="19" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="17" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" style="2" customWidth="1"/>
@@ -9339,36 +8813,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="65" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/test/example-valid.xlsx
+++ b/test/example-valid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\model\niem-model-format-spreadsheet\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F22CE73-10F0-42D1-9409-EB87AC657195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F34BB58-EF8F-4DCB-A8F6-730A197EAB5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="1620" windowWidth="19440" windowHeight="11670" tabRatio="890" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="1620" windowWidth="19440" windowHeight="11670" tabRatio="890" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -2901,7 +2901,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3067,9 +3067,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4651,11 +4648,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -4665,8 +4662,8 @@
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -4674,8 +4671,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="68" t="s">
         <v>244</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -4683,8 +4680,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68" t="s">
         <v>245</v>
       </c>
       <c r="C7" s="35" t="s">
@@ -4692,8 +4689,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -4701,8 +4698,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -4710,8 +4707,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -4719,8 +4716,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -4735,8 +4732,8 @@
       <c r="C12" s="54"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="68" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -4744,15 +4741,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68" t="s">
         <v>284</v>
       </c>
       <c r="C14" s="35"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="70" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69" t="s">
         <v>287</v>
       </c>
       <c r="C15" s="35" t="s">
@@ -4760,8 +4757,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="69" t="s">
         <v>288</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -4769,8 +4766,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69" t="s">
         <v>290</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -4778,8 +4775,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="69" t="s">
         <v>289</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -4787,8 +4784,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69" t="s">
         <v>292</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -4796,8 +4793,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="70" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="69" t="s">
         <v>291</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -4805,8 +4802,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69" t="s">
         <v>294</v>
       </c>
       <c r="C21" s="35" t="s">
@@ -4814,15 +4811,15 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="70" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="69" t="s">
         <v>293</v>
       </c>
       <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="35" t="s">
@@ -4830,8 +4827,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="68" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="35" t="s">
@@ -4839,8 +4836,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="68" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -4855,8 +4852,8 @@
       <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="35" t="s">
@@ -4864,8 +4861,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -4873,8 +4870,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="68" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="35" t="s">
@@ -4882,8 +4879,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="68" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -4891,8 +4888,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="68" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -4900,8 +4897,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="68" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="35" t="s">
@@ -6479,7 +6476,7 @@
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="65" t="s">
         <v>284</v>
       </c>
       <c r="B14" s="6"/>
@@ -6593,7 +6590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6604,16 +6601,16 @@
   <cols>
     <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="75" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="74" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="22.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="75" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="74" customWidth="1"/>
     <col min="11" max="11" width="45.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="75" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="75" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="74" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="74" customWidth="1"/>
     <col min="14" max="14" width="31.28515625" style="2" customWidth="1"/>
     <col min="15" max="17" width="31.85546875" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="2"/>
@@ -6669,1723 +6666,1723 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74" t="s">
+    <row r="2" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73" t="s">
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="J4" s="73" t="s">
+      <c r="J4" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
     </row>
     <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="72" t="s">
         <v>376</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="72" t="s">
         <v>383</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="73" t="s">
+      <c r="L9" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="72" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
     </row>
     <row r="11" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73" t="s">
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="72" t="s">
         <v>393</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="72" t="s">
         <v>394</v>
       </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-    </row>
-    <row r="12" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74" t="s">
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+    </row>
+    <row r="12" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73" t="s">
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="72" t="s">
         <v>396</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="L13" s="73" t="s">
+      <c r="L13" s="72" t="s">
         <v>399</v>
       </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
     </row>
     <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72" t="s">
         <v>400</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>402</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="72" t="s">
         <v>403</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>404</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="72" t="s">
         <v>405</v>
       </c>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72" t="s">
         <v>406</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73" t="s">
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I15" s="73" t="s">
+      <c r="I15" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="72" t="s">
         <v>410</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
     </row>
     <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73" t="s">
+      <c r="A16" s="72"/>
+      <c r="B16" s="72" t="s">
         <v>412</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>413</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73" t="s">
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="72" t="s">
         <v>414</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="72" t="s">
         <v>410</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="72" t="s">
         <v>415</v>
       </c>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72" t="s">
         <v>416</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>417</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73" t="s">
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="72" t="s">
         <v>419</v>
       </c>
-      <c r="J17" s="73" t="s">
+      <c r="J17" s="72" t="s">
         <v>420</v>
       </c>
-      <c r="K17" s="73" t="s">
+      <c r="K17" s="72" t="s">
         <v>421</v>
       </c>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-    </row>
-    <row r="18" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74" t="s">
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+    </row>
+    <row r="18" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73" t="s">
         <v>422</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72" t="s">
         <v>423</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73" t="s">
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="72" t="s">
         <v>426</v>
       </c>
-      <c r="J19" s="73" t="s">
+      <c r="J19" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="72" t="s">
         <v>428</v>
       </c>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73" t="s">
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="72" t="s">
         <v>432</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="72" t="s">
         <v>433</v>
       </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
     </row>
     <row r="21" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72" t="s">
         <v>434</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="72" t="s">
         <v>435</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73" t="s">
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="72" t="s">
         <v>437</v>
       </c>
-      <c r="J21" s="73" t="s">
+      <c r="J21" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="72" t="s">
         <v>439</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73" t="s">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>441</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73" t="s">
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I22" s="73" t="s">
+      <c r="I22" s="72" t="s">
         <v>442</v>
       </c>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K22" s="73" t="s">
+      <c r="K22" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-    </row>
-    <row r="23" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74" t="s">
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+    </row>
+    <row r="23" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73" t="s">
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I24" s="73" t="s">
+      <c r="I24" s="72" t="s">
         <v>444</v>
       </c>
-      <c r="J24" s="73" t="s">
+      <c r="J24" s="72" t="s">
         <v>445</v>
       </c>
-      <c r="K24" s="73" t="s">
+      <c r="K24" s="72" t="s">
         <v>446</v>
       </c>
-      <c r="L24" s="73" t="s">
+      <c r="L24" s="72" t="s">
         <v>447</v>
       </c>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73" t="s">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="J25" s="73" t="s">
+      <c r="J25" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="K25" s="73" t="s">
+      <c r="K25" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
     </row>
     <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="72"/>
+      <c r="B26" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73" t="s">
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="72" t="s">
         <v>453</v>
       </c>
-      <c r="J26" s="73" t="s">
+      <c r="J26" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="K26" s="73" t="s">
+      <c r="K26" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
     </row>
     <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73" t="s">
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="J27" s="73" t="s">
+      <c r="J27" s="72" t="s">
         <v>456</v>
       </c>
-      <c r="K27" s="73" t="s">
+      <c r="K27" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="L27" s="73" t="s">
+      <c r="L27" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73" t="s">
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I28" s="73" t="s">
+      <c r="I28" s="72" t="s">
         <v>459</v>
       </c>
-      <c r="J28" s="73" t="s">
+      <c r="J28" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="72" t="s">
         <v>460</v>
       </c>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
     </row>
     <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="72" t="s">
         <v>461</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73" t="s">
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="J29" s="73" t="s">
+      <c r="J29" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K29" s="73" t="s">
+      <c r="K29" s="72" t="s">
         <v>464</v>
       </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="72"/>
+      <c r="B30" s="72" t="s">
         <v>465</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>466</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="I30" s="72" t="s">
         <v>467</v>
       </c>
-      <c r="J30" s="73" t="s">
+      <c r="J30" s="72" t="s">
         <v>410</v>
       </c>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="72" t="s">
         <v>468</v>
       </c>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="72" t="s">
         <v>469</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="72" t="s">
         <v>470</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="72" t="s">
         <v>471</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73" t="s">
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I31" s="73" t="s">
+      <c r="I31" s="72" t="s">
         <v>472</v>
       </c>
-      <c r="J31" s="73" t="s">
+      <c r="J31" s="72" t="s">
         <v>473</v>
       </c>
-      <c r="K31" s="73" t="s">
+      <c r="K31" s="72" t="s">
         <v>474</v>
       </c>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
     </row>
     <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73" t="s">
+      <c r="A32" s="72"/>
+      <c r="B32" s="72" t="s">
         <v>475</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="72" t="s">
         <v>476</v>
       </c>
-      <c r="E32" s="73" t="s">
+      <c r="E32" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73" t="s">
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I32" s="73" t="s">
+      <c r="I32" s="72" t="s">
         <v>477</v>
       </c>
-      <c r="J32" s="73" t="s">
+      <c r="J32" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="K32" s="73" t="s">
+      <c r="K32" s="72" t="s">
         <v>478</v>
       </c>
-      <c r="L32" s="73" t="s">
+      <c r="L32" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
     </row>
     <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73" t="s">
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="72" t="s">
         <v>481</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J33" s="72" t="s">
         <v>482</v>
       </c>
-      <c r="K33" s="73" t="s">
+      <c r="K33" s="72" t="s">
         <v>483</v>
       </c>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
     </row>
     <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73" t="s">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73" t="s">
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I34" s="73" t="s">
+      <c r="I34" s="72" t="s">
         <v>484</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J34" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="K34" s="73" t="s">
+      <c r="K34" s="72" t="s">
         <v>486</v>
       </c>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
     </row>
     <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73" t="s">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72" t="s">
         <v>487</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="72" t="s">
         <v>488</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73" t="s">
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I35" s="73" t="s">
+      <c r="I35" s="72" t="s">
         <v>489</v>
       </c>
-      <c r="J35" s="73" t="s">
+      <c r="J35" s="72" t="s">
         <v>485</v>
       </c>
-      <c r="K35" s="73" t="s">
+      <c r="K35" s="72" t="s">
         <v>490</v>
       </c>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
     </row>
     <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73" t="s">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="72" t="s">
         <v>492</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="72" t="s">
         <v>493</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73" t="s">
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I36" s="73" t="s">
+      <c r="I36" s="72" t="s">
         <v>494</v>
       </c>
-      <c r="J36" s="73" t="s">
+      <c r="J36" s="72" t="s">
         <v>495</v>
       </c>
-      <c r="K36" s="73" t="s">
+      <c r="K36" s="72" t="s">
         <v>496</v>
       </c>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
     </row>
     <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="73" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="72" t="s">
         <v>492</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="72" t="s">
         <v>493</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73" t="s">
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I37" s="73" t="s">
+      <c r="I37" s="72" t="s">
         <v>497</v>
       </c>
-      <c r="J37" s="73" t="s">
+      <c r="J37" s="72" t="s">
         <v>498</v>
       </c>
-      <c r="K37" s="73" t="s">
+      <c r="K37" s="72" t="s">
         <v>499</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
     </row>
     <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="73" t="s">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="72" t="s">
         <v>492</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="72" t="s">
         <v>493</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73" t="s">
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I38" s="73" t="s">
+      <c r="I38" s="72" t="s">
         <v>500</v>
       </c>
-      <c r="J38" s="73" t="s">
+      <c r="J38" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="K38" s="73" t="s">
+      <c r="K38" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73" t="s">
+      <c r="L38" s="72"/>
+      <c r="M38" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
     </row>
     <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73" t="s">
+      <c r="A39" s="72"/>
+      <c r="B39" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="72" t="s">
         <v>492</v>
       </c>
-      <c r="D39" s="73" t="s">
+      <c r="D39" s="72" t="s">
         <v>493</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73" t="s">
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I39" s="73" t="s">
+      <c r="I39" s="72" t="s">
         <v>502</v>
       </c>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="72" t="s">
         <v>503</v>
       </c>
-      <c r="K39" s="73" t="s">
+      <c r="K39" s="72" t="s">
         <v>504</v>
       </c>
-      <c r="L39" s="73" t="s">
+      <c r="L39" s="72" t="s">
         <v>505</v>
       </c>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-    </row>
-    <row r="40" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74" t="s">
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+    </row>
+    <row r="40" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73"/>
+      <c r="B40" s="73" t="s">
         <v>470</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74" t="s">
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
     </row>
     <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73" t="s">
+      <c r="D41" s="72"/>
+      <c r="E41" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73" t="s">
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I41" s="73" t="s">
+      <c r="I41" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="J41" s="73" t="s">
+      <c r="J41" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="73" t="s">
+      <c r="K41" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73" t="s">
+      <c r="L41" s="72"/>
+      <c r="M41" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
     </row>
     <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73" t="s">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73" t="s">
+      <c r="D42" s="72"/>
+      <c r="E42" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73" t="s">
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I42" s="73" t="s">
+      <c r="I42" s="72" t="s">
         <v>508</v>
       </c>
-      <c r="J42" s="73" t="s">
+      <c r="J42" s="72" t="s">
         <v>456</v>
       </c>
-      <c r="K42" s="73" t="s">
+      <c r="K42" s="72" t="s">
         <v>509</v>
       </c>
-      <c r="L42" s="73" t="s">
+      <c r="L42" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73" t="s">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73" t="s">
+      <c r="D43" s="72"/>
+      <c r="E43" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73" t="s">
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I43" s="73" t="s">
+      <c r="I43" s="72" t="s">
         <v>459</v>
       </c>
-      <c r="J43" s="73" t="s">
+      <c r="J43" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K43" s="73" t="s">
+      <c r="K43" s="72" t="s">
         <v>460</v>
       </c>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-    </row>
-    <row r="44" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74" t="s">
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+    </row>
+    <row r="44" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74" t="s">
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
     </row>
     <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73" t="s">
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73" t="s">
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I45" s="73" t="s">
+      <c r="I45" s="72" t="s">
         <v>511</v>
       </c>
-      <c r="J45" s="73" t="s">
+      <c r="J45" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="K45" s="73" t="s">
+      <c r="K45" s="72" t="s">
         <v>513</v>
       </c>
-      <c r="L45" s="73" t="s">
+      <c r="L45" s="72" t="s">
         <v>514</v>
       </c>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
     </row>
     <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73" t="s">
+      <c r="A46" s="72"/>
+      <c r="B46" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E46" s="73" t="s">
+      <c r="E46" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73" t="s">
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I46" s="73" t="s">
+      <c r="I46" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="J46" s="73" t="s">
+      <c r="J46" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="K46" s="73" t="s">
+      <c r="K46" s="72" t="s">
         <v>516</v>
       </c>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
     </row>
     <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="72"/>
+      <c r="B47" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D47" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73" t="s">
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I47" s="73" t="s">
+      <c r="I47" s="72" t="s">
         <v>453</v>
       </c>
-      <c r="J47" s="73" t="s">
+      <c r="J47" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="K47" s="73" t="s">
+      <c r="K47" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73" t="s">
+      <c r="L47" s="72"/>
+      <c r="M47" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="73"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
     </row>
     <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="73" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73" t="s">
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I48" s="73" t="s">
+      <c r="I48" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="J48" s="73" t="s">
+      <c r="J48" s="72" t="s">
         <v>456</v>
       </c>
-      <c r="K48" s="73" t="s">
+      <c r="K48" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="L48" s="73" t="s">
+      <c r="L48" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="73" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="72" t="s">
         <v>448</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="E49" s="73" t="s">
+      <c r="E49" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73" t="s">
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I49" s="73" t="s">
+      <c r="I49" s="72" t="s">
         <v>459</v>
       </c>
-      <c r="J49" s="73" t="s">
+      <c r="J49" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K49" s="73" t="s">
+      <c r="K49" s="72" t="s">
         <v>460</v>
       </c>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
     </row>
     <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="73" t="s">
+      <c r="A50" s="72"/>
+      <c r="B50" s="72" t="s">
         <v>461</v>
       </c>
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D50" s="73" t="s">
+      <c r="D50" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73" t="s">
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I50" s="73" t="s">
+      <c r="I50" s="72" t="s">
         <v>517</v>
       </c>
-      <c r="J50" s="73" t="s">
+      <c r="J50" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K50" s="73" t="s">
+      <c r="K50" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="73"/>
-      <c r="P50" s="73"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
     </row>
     <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="73" t="s">
+      <c r="A51" s="72"/>
+      <c r="B51" s="72" t="s">
         <v>519</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="72" t="s">
         <v>520</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E51" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73" t="s">
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I51" s="73" t="s">
+      <c r="I51" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="J51" s="73" t="s">
+      <c r="J51" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="K51" s="73" t="s">
+      <c r="K51" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="L51" s="73"/>
-      <c r="M51" s="73"/>
-      <c r="N51" s="73"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="73" t="s">
+      <c r="A52" s="72"/>
+      <c r="B52" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="E52" s="73" t="s">
+      <c r="E52" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73" t="s">
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="I52" s="73" t="s">
+      <c r="I52" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="J52" s="73" t="s">
+      <c r="J52" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="K52" s="73" t="s">
+      <c r="K52" s="72" t="s">
         <v>527</v>
       </c>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-    </row>
-    <row r="53" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="74"/>
-      <c r="B53" s="74" t="s">
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+    </row>
+    <row r="53" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73"/>
+      <c r="B53" s="73" t="s">
         <v>528</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74" t="s">
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
     </row>
     <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73" t="s">
+      <c r="A54" s="72"/>
+      <c r="B54" s="72" t="s">
         <v>529</v>
       </c>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="72" t="s">
         <v>531</v>
       </c>
-      <c r="E54" s="73" t="s">
+      <c r="E54" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73" t="s">
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="I54" s="73" t="s">
+      <c r="I54" s="72" t="s">
         <v>532</v>
       </c>
-      <c r="J54" s="73" t="s">
+      <c r="J54" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="K54" s="73" t="s">
+      <c r="K54" s="72" t="s">
         <v>533</v>
       </c>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="3">
@@ -8534,55 +8531,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="76" t="s">
         <v>337</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="O1" s="84" t="s">
+      <c r="O1" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="P1" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" s="95" t="s">
+      <c r="Q1" s="94" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8631,43 +8628,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="84" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8722,46 +8719,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="87" t="s">
         <v>539</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="89" t="s">
         <v>213</v>
       </c>
     </row>
@@ -8790,11 +8787,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,13 +8815,13 @@
       <c r="B1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -8840,16 +8837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0800-000001000000}"/>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>MAPPING_CODES</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{00000000-0002-0000-0800-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
